--- a/volta-2/etapa-2/Interface_SimpyPort.xlsx
+++ b/volta-2/etapa-2/Interface_SimpyPort.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
